--- a/ERP/ERP.Web/Content/Files/CHAM_CONG_CHUAN.xlsx
+++ b/ERP/ERP.Web/Content/Files/CHAM_CONG_CHUAN.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOPLONGTECH\Chuan\ERP15042017\ERP\ERP.Web\Content\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
   <si>
     <t>STT</t>
   </si>
@@ -70,6 +75,492 @@
   </si>
   <si>
     <t>Số lần quên đeo thẻ</t>
+  </si>
+  <si>
+    <t>Lê Quang Đạo</t>
+  </si>
+  <si>
+    <t>Vũ Đức Bắc</t>
+  </si>
+  <si>
+    <t>TECH002_HL</t>
+  </si>
+  <si>
+    <t>Trần Mạnh Tuấn</t>
+  </si>
+  <si>
+    <t>SALE003_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tân</t>
+  </si>
+  <si>
+    <t>INTE001_HL</t>
+  </si>
+  <si>
+    <t>Vũ Thị Hạnh</t>
+  </si>
+  <si>
+    <t>PURC002_HL</t>
+  </si>
+  <si>
+    <t>Vũ Thị Nhàn</t>
+  </si>
+  <si>
+    <t>ACCT001_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tươi</t>
+  </si>
+  <si>
+    <t>SALE007_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhâm</t>
+  </si>
+  <si>
+    <t>WALO001_HL</t>
+  </si>
+  <si>
+    <t>Đặng Thị Thanh Lịch</t>
+  </si>
+  <si>
+    <t>Lê Huyền Trang</t>
+  </si>
+  <si>
+    <t>ACCT003_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Dung</t>
+  </si>
+  <si>
+    <t>ACCT002_HL</t>
+  </si>
+  <si>
+    <t>Vũ Thị Thảo</t>
+  </si>
+  <si>
+    <t>PURC001_HL</t>
+  </si>
+  <si>
+    <t>Đỗ Hoa Tâm</t>
+  </si>
+  <si>
+    <t>WALO002_HL</t>
+  </si>
+  <si>
+    <t>Đặng Thị Thu Hường</t>
+  </si>
+  <si>
+    <t>SALE005_HL</t>
+  </si>
+  <si>
+    <t>Phạm Hồng Quân</t>
+  </si>
+  <si>
+    <t>TECH011_HL</t>
+  </si>
+  <si>
+    <t>Thái Viết Đức</t>
+  </si>
+  <si>
+    <t>TECH012_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Tài</t>
+  </si>
+  <si>
+    <t>TECH006_HL</t>
+  </si>
+  <si>
+    <t>Lê Văn Trung</t>
+  </si>
+  <si>
+    <t>MARK002_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đức</t>
+  </si>
+  <si>
+    <t>WALO005_HL</t>
+  </si>
+  <si>
+    <t>Hoàng Mạnh Hùng</t>
+  </si>
+  <si>
+    <t>TECH013_HL</t>
+  </si>
+  <si>
+    <t>Đặng Thị Thanh Nga</t>
+  </si>
+  <si>
+    <t>ACCT004_HL</t>
+  </si>
+  <si>
+    <t>Trương Thị Xoa</t>
+  </si>
+  <si>
+    <t>PURC004_HL</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>SALE009_HL</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hương</t>
+  </si>
+  <si>
+    <t>PURC005_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Hải</t>
+  </si>
+  <si>
+    <t>TECH010_HL</t>
+  </si>
+  <si>
+    <t>Đỗ Hữu Tài</t>
+  </si>
+  <si>
+    <t>TECH009_HL</t>
+  </si>
+  <si>
+    <t>Hà Thọ Hải</t>
+  </si>
+  <si>
+    <t>TECH004_HL</t>
+  </si>
+  <si>
+    <t>Vũ Thị Phượng</t>
+  </si>
+  <si>
+    <t>ACCT005_HL</t>
+  </si>
+  <si>
+    <t>Ngô Thị Dần</t>
+  </si>
+  <si>
+    <t>SALE008_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hường</t>
+  </si>
+  <si>
+    <t>SALE010_HL</t>
+  </si>
+  <si>
+    <t>Lê Văn Vững</t>
+  </si>
+  <si>
+    <t>SALE011_HL</t>
+  </si>
+  <si>
+    <t>Vũ Xuân Chung</t>
+  </si>
+  <si>
+    <t>TECH008_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hiền</t>
+  </si>
+  <si>
+    <t>SALE012_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thành</t>
+  </si>
+  <si>
+    <t>TECH020_HL</t>
+  </si>
+  <si>
+    <t>Phan Thái Tiệp</t>
+  </si>
+  <si>
+    <t>MARK003_HL</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Diệp</t>
+  </si>
+  <si>
+    <t>TECH014_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Sỹ Lợi</t>
+  </si>
+  <si>
+    <t>SALE017_HL</t>
+  </si>
+  <si>
+    <t>Trịnh Minh Khoa</t>
+  </si>
+  <si>
+    <t>Đặng Thị Ninh Thanh</t>
+  </si>
+  <si>
+    <t>SALE006_HL</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Lực</t>
+  </si>
+  <si>
+    <t>TECH007_HL</t>
+  </si>
+  <si>
+    <t>Trịnh An Ninh</t>
+  </si>
+  <si>
+    <t>TECH005_HL</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Tiến</t>
+  </si>
+  <si>
+    <t>WALO006_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Hải</t>
+  </si>
+  <si>
+    <t>Đới Văn Đặng</t>
+  </si>
+  <si>
+    <t>TECH003_HL</t>
+  </si>
+  <si>
+    <t>Vũ Văn Trình</t>
+  </si>
+  <si>
+    <t>WALO007_HL</t>
+  </si>
+  <si>
+    <t>Đặng Văn Cương</t>
+  </si>
+  <si>
+    <t>WALO008_HL</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Dương</t>
+  </si>
+  <si>
+    <t>PURC003_HL</t>
+  </si>
+  <si>
+    <t>Đào Kim Lực</t>
+  </si>
+  <si>
+    <t>INTE002_HL</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Hà</t>
+  </si>
+  <si>
+    <t>WALO003_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hòa</t>
+  </si>
+  <si>
+    <t>ACCT006_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Trãi</t>
+  </si>
+  <si>
+    <t>TECH015_HL</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Du</t>
+  </si>
+  <si>
+    <t>TECH016_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Định</t>
+  </si>
+  <si>
+    <t>TECH017_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mừng</t>
+  </si>
+  <si>
+    <t>WALO004_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trang</t>
+  </si>
+  <si>
+    <t>PURC006_HL</t>
+  </si>
+  <si>
+    <t>Lê Thanh Lực</t>
+  </si>
+  <si>
+    <t>INTE004_HL</t>
+  </si>
+  <si>
+    <t>Dư Thị Quỳnh</t>
+  </si>
+  <si>
+    <t>TECH018_HL</t>
+  </si>
+  <si>
+    <t>Lâm Thị Hiền</t>
+  </si>
+  <si>
+    <t>INTE003_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phúc</t>
+  </si>
+  <si>
+    <t>TECH019_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Giang</t>
+  </si>
+  <si>
+    <t>SALE014_HL</t>
+  </si>
+  <si>
+    <t>Lâm Đại Dương</t>
+  </si>
+  <si>
+    <t>TECH022_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Anh Trúc</t>
+  </si>
+  <si>
+    <t>WALO009_HL</t>
+  </si>
+  <si>
+    <t>Trương Văn Thái</t>
+  </si>
+  <si>
+    <t>WALO010_HL</t>
+  </si>
+  <si>
+    <t>Phạm Quang Huy</t>
+  </si>
+  <si>
+    <t>INTE005_HL</t>
+  </si>
+  <si>
+    <t>Lâm Hoài Tâm</t>
+  </si>
+  <si>
+    <t>INTE006_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoàng</t>
+  </si>
+  <si>
+    <t>SALE015_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thương</t>
+  </si>
+  <si>
+    <t>SALE016_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Giao</t>
+  </si>
+  <si>
+    <t>TECH023_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tùng</t>
+  </si>
+  <si>
+    <t>TECH024_HL</t>
+  </si>
+  <si>
+    <t>Vũ Thành Nhân</t>
+  </si>
+  <si>
+    <t>TECH025_HL</t>
+  </si>
+  <si>
+    <t>Trịnh Tiến Dũng</t>
+  </si>
+  <si>
+    <t>TECH026_HL</t>
+  </si>
+  <si>
+    <t>Hoàng Xuân Hương</t>
+  </si>
+  <si>
+    <t>ACCT007_HL</t>
+  </si>
+  <si>
+    <t>Đặng Thị Kim Trang</t>
+  </si>
+  <si>
+    <t>INTE007_HL</t>
+  </si>
+  <si>
+    <t>Tạ Hồng Phương</t>
+  </si>
+  <si>
+    <t>WALO011_HL</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu</t>
+  </si>
+  <si>
+    <t>đi làm 3/4</t>
+  </si>
+  <si>
+    <t>Chu Mạnh Trung</t>
+  </si>
+  <si>
+    <t>đi làm 4/4</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>đi làm 17/4</t>
+  </si>
+  <si>
+    <t>Trần Thị Thuý Ngân</t>
+  </si>
+  <si>
+    <t>đi làm 10/4</t>
+  </si>
+  <si>
+    <t>T4/2017</t>
+  </si>
+  <si>
+    <t>SALE019_HL</t>
+  </si>
+  <si>
+    <t>TECH027_HL</t>
+  </si>
+  <si>
+    <t>SALE020_HL</t>
+  </si>
+  <si>
+    <t>WALO013_HL</t>
+  </si>
+  <si>
+    <t>ACCT008_HL</t>
+  </si>
+  <si>
+    <t>WALO014_HL</t>
+  </si>
+  <si>
+    <t>MARK005_HL</t>
+  </si>
+  <si>
+    <t>MARK006_HL</t>
   </si>
 </sst>
 </file>
@@ -142,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +651,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -451,14 +943,24 @@
     <col min="1" max="1" width="7" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="21.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="36" style="6" customWidth="1"/>
-    <col min="8" max="17" width="26.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18" style="6" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="6" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,6 +1011,2931 @@
       </c>
       <c r="Q1" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>25</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>25</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.0166666666666666</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>25</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.3833333333333333</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>25</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>25</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.7833333333333334</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>6</v>
+      </c>
+      <c r="M8" s="7">
+        <v>19</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>24</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="7">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>25</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>25</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>25</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.7833333333333334</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
+        <v>4</v>
+      </c>
+      <c r="M13" s="7">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>25</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>24</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>25</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>25</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="7">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>25</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>25</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>37</v>
+      </c>
+      <c r="H20" s="7">
+        <v>12</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7">
+        <v>25</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>24</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="7">
+        <v>25</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>25</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="7">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>25</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7">
+        <v>25</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
+        <v>2</v>
+      </c>
+      <c r="M24" s="7">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>25</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>28</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="7">
+        <v>25</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
+        <v>36</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>29</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="7">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.4833333333333334</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="M27" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="7">
+        <v>25</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2.6166666666666667</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>13</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>25</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="7">
+        <v>25</v>
+      </c>
+      <c r="E29" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G29" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
+        <v>24</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
+        <v>2</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>25</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="7">
+        <v>25</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>25</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>34</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="7">
+        <v>25</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>25</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>35</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="7">
+        <v>25</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>25</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>36</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="7">
+        <v>25</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>37</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="7">
+        <v>25</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <v>4</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>25</v>
+      </c>
+      <c r="N35" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>38</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="7">
+        <v>25</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7">
+        <v>24</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>39</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="7">
+        <v>25</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4.2833333333333332</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7">
+        <v>3</v>
+      </c>
+      <c r="M37" s="7">
+        <v>22</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>40</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="7">
+        <v>25</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>3</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7">
+        <v>1</v>
+      </c>
+      <c r="M38" s="7">
+        <v>24</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>41</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="7">
+        <v>25</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>25</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>42</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="7">
+        <v>25</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7">
+        <v>2</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>25</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>43</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="7">
+        <v>25</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1.8166666666666667</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7">
+        <v>2</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>25</v>
+      </c>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>44</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="7">
+        <v>25</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>25</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>45</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="7">
+        <v>25</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7">
+        <v>8</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>25</v>
+      </c>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>46</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="7">
+        <v>25</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="I44" s="7">
+        <v>1</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7">
+        <v>1</v>
+      </c>
+      <c r="M44" s="7">
+        <v>24</v>
+      </c>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>47</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="7">
+        <v>25</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>25</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>48</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="7">
+        <v>25</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H46" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <v>24</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>49</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="7">
+        <v>25</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7">
+        <v>29</v>
+      </c>
+      <c r="H47" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <v>2</v>
+      </c>
+      <c r="M47" s="7">
+        <v>23</v>
+      </c>
+      <c r="N47" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>50</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="7">
+        <v>25</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7">
+        <v>3</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>25</v>
+      </c>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>51</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="7">
+        <v>25</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>25</v>
+      </c>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>52</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="7">
+        <v>25</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M50" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>53</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="7">
+        <v>25</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7">
+        <v>17</v>
+      </c>
+      <c r="H51" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>25</v>
+      </c>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>54</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="7">
+        <v>25</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7">
+        <v>12</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>25</v>
+      </c>
+      <c r="N52" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>55</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="7">
+        <v>25</v>
+      </c>
+      <c r="E53" s="7">
+        <v>2.6833333333333331</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7">
+        <v>2</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M53" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>56</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="7">
+        <v>25</v>
+      </c>
+      <c r="E54" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7">
+        <v>3</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7">
+        <v>5</v>
+      </c>
+      <c r="M54" s="7">
+        <v>20</v>
+      </c>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>57</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="7">
+        <v>25</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M55" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>58</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="7">
+        <v>25</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
+        <v>24</v>
+      </c>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>59</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="7">
+        <v>25</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7">
+        <v>24</v>
+      </c>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>60</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="7">
+        <v>25</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7">
+        <v>1</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M58" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>61</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="7">
+        <v>25</v>
+      </c>
+      <c r="E59" s="7">
+        <v>10.083333333333334</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>25</v>
+      </c>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>63</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="7">
+        <v>25</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="G60" s="7">
+        <v>6</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7">
+        <v>2</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7">
+        <v>1</v>
+      </c>
+      <c r="M60" s="7">
+        <v>24</v>
+      </c>
+      <c r="N60" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>64</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="7">
+        <v>25</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7">
+        <v>2</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>25</v>
+      </c>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>65</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="7">
+        <v>25</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7">
+        <v>19</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7">
+        <v>1</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7">
+        <v>1</v>
+      </c>
+      <c r="M62" s="7">
+        <v>24</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>66</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="7">
+        <v>25</v>
+      </c>
+      <c r="E63" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7">
+        <v>1</v>
+      </c>
+      <c r="M63" s="7">
+        <v>24</v>
+      </c>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>67</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="7">
+        <v>25</v>
+      </c>
+      <c r="E64" s="7">
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7">
+        <v>7</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7">
+        <v>6</v>
+      </c>
+      <c r="M64" s="7">
+        <v>19</v>
+      </c>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>68</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="7">
+        <v>25</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7">
+        <v>2</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7">
+        <v>1</v>
+      </c>
+      <c r="M65" s="7">
+        <v>24</v>
+      </c>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>69</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="7">
+        <v>25</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7">
+        <v>11</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>25</v>
+      </c>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>70</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="7">
+        <v>25</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7">
+        <v>0</v>
+      </c>
+      <c r="M67" s="7">
+        <v>25</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>71</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="7">
+        <v>25</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>25</v>
+      </c>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>72</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="7">
+        <v>25</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>25</v>
+      </c>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>73</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="7">
+        <v>25</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7">
+        <v>61</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M70" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>74</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="7">
+        <v>25</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7">
+        <v>6</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7">
+        <v>25</v>
+      </c>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>75</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="7">
+        <v>25</v>
+      </c>
+      <c r="E72" s="7">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7">
+        <v>46</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7">
+        <v>2</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M72" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>76</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="7">
+        <v>25</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="H73" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="I73" s="7">
+        <v>4</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7">
+        <v>2</v>
+      </c>
+      <c r="M73" s="7">
+        <v>23</v>
+      </c>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>77</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" s="7">
+        <v>25</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>25</v>
+      </c>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>78</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="7">
+        <v>25</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7">
+        <v>5</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7">
+        <v>10</v>
+      </c>
+      <c r="M75" s="7">
+        <v>15</v>
+      </c>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>79</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="7">
+        <v>25</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7">
+        <v>6</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7">
+        <v>2</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7">
+        <v>1</v>
+      </c>
+      <c r="M76" s="7">
+        <v>24</v>
+      </c>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>80</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="7">
+        <v>25</v>
+      </c>
+      <c r="E77" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G77" s="7">
+        <v>9</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7">
+        <v>1</v>
+      </c>
+      <c r="M77" s="7">
+        <v>24</v>
+      </c>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>81</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="7">
+        <v>25</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7">
+        <v>2</v>
+      </c>
+      <c r="M78" s="7">
+        <v>23</v>
+      </c>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>82</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="7">
+        <v>25</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7">
+        <v>16</v>
+      </c>
+      <c r="M79" s="7">
+        <v>9</v>
+      </c>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>83</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="7">
+        <v>25</v>
+      </c>
+      <c r="E80" s="7">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7">
+        <v>7</v>
+      </c>
+      <c r="M80" s="7">
+        <v>18</v>
+      </c>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
